--- a/HyperRail/HyperRail_BOMv2.xlsx
+++ b/HyperRail/HyperRail_BOMv2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jorian Brusind\Documents\GitHub\PersonalProjects\HyperRail\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jorian Bruslind\Documents\GitHub\PersonalProjects\HyperRail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A2BC2D-7BC6-4F6E-B409-AE9CC25A4807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC95F68-1EBE-405A-B146-3458A1F8A50D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{9AA5CA3B-103F-4503-BB38-84DF181EF15E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9AA5CA3B-103F-4503-BB38-84DF181EF15E}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="1" r:id="rId1"/>
@@ -3841,30 +3841,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B2C5D0B-A61F-416F-933C-0297DCE53E09}">
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" customWidth="1"/>
-    <col min="17" max="17" width="17.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.54296875" customWidth="1"/>
+    <col min="16" max="16" width="14.54296875" customWidth="1"/>
+    <col min="17" max="17" width="17.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="33.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:18" ht="33.5" x14ac:dyDescent="0.75">
       <c r="A1" s="47" t="s">
         <v>310</v>
       </c>
@@ -3876,7 +3876,7 @@
       <c r="G1" s="47"/>
       <c r="H1" s="47"/>
     </row>
-    <row r="2" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
@@ -3909,10 +3909,10 @@
       </c>
       <c r="L2" s="42">
         <f>SUM(Table13[Extended Price])</f>
-        <v>1044.8291216959419</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+        <v>960.95505744397337</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="C3" t="s">
         <v>231</v>
       </c>
@@ -3921,17 +3921,17 @@
       </c>
       <c r="E3" s="7">
         <f>Mechanical!I36</f>
-        <v>328.20925171411267</v>
+        <v>286.27221958812839</v>
       </c>
       <c r="F3" s="7">
         <f>Table13[[#This Row],[Unit Price]]*Table13[[#This Row],[Quantity]]</f>
-        <v>656.41850342822534</v>
+        <v>572.54443917625679</v>
       </c>
       <c r="I3" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>281</v>
       </c>
@@ -3954,7 +3954,7 @@
       </c>
       <c r="L4" s="46"/>
     </row>
-    <row r="5" spans="1:18" ht="27" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:18" ht="26.5" thickTop="1" x14ac:dyDescent="0.6">
       <c r="C5" t="s">
         <v>312</v>
       </c>
@@ -3987,7 +3987,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
         <v>122</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>4.9212600000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
         <v>201</v>
       </c>
@@ -4073,7 +4073,7 @@
         <v>6.56168</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
         <v>324</v>
       </c>
@@ -4116,7 +4116,7 @@
         <v>6.56168</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
         <v>339</v>
       </c>
@@ -4184,26 +4184,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C0E5AEB-69FF-447D-8154-D544AC848EA4}">
   <dimension ref="A1:O67"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7265625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7265625" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" customWidth="1"/>
+    <col min="12" max="12" width="34.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="35.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.81640625" customWidth="1"/>
     <col min="17" max="25" width="11" customWidth="1"/>
     <col min="26" max="115" width="12" customWidth="1"/>
     <col min="116" max="1015" width="13" customWidth="1"/>
@@ -4211,7 +4211,7 @@
     <col min="10016" max="16384" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="58.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:15" ht="58.5" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A1" s="50" t="s">
         <v>202</v>
       </c>
@@ -4230,7 +4230,7 @@
       <c r="N1" s="50"/>
       <c r="O1" s="50"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4277,7 +4277,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -4324,7 +4324,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -4371,7 +4371,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -4418,7 +4418,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -4465,7 +4465,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -4512,7 +4512,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -4559,7 +4559,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -4606,7 +4606,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -4653,7 +4653,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>66</v>
       </c>
@@ -4700,7 +4700,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>71</v>
       </c>
@@ -4747,7 +4747,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>76</v>
       </c>
@@ -4794,7 +4794,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>81</v>
       </c>
@@ -4841,7 +4841,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>86</v>
       </c>
@@ -4888,7 +4888,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>92</v>
       </c>
@@ -4935,7 +4935,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>99</v>
       </c>
@@ -4982,7 +4982,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>105</v>
       </c>
@@ -5029,7 +5029,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>111</v>
       </c>
@@ -5076,7 +5076,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>117</v>
       </c>
@@ -5123,16 +5123,16 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="I21" s="5"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="I22" s="5"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="I23" s="5"/>
     </row>
-    <row r="24" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A24" s="49" t="s">
         <v>205</v>
       </c>
@@ -5148,7 +5148,7 @@
         <v>27.140000000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="47.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:15" ht="47.25" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A25" s="51" t="s">
         <v>203</v>
       </c>
@@ -5167,7 +5167,7 @@
       <c r="N25" s="51"/>
       <c r="O25" s="51"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>0</v>
       </c>
@@ -5214,7 +5214,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>15</v>
       </c>
@@ -5261,7 +5261,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>124</v>
       </c>
@@ -5308,7 +5308,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>129</v>
       </c>
@@ -5355,7 +5355,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>135</v>
       </c>
@@ -5402,7 +5402,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>26</v>
       </c>
@@ -5449,7 +5449,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>140</v>
       </c>
@@ -5496,7 +5496,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>47</v>
       </c>
@@ -5543,7 +5543,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>147</v>
       </c>
@@ -5590,7 +5590,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>5040771891</v>
       </c>
@@ -5637,7 +5637,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>155</v>
       </c>
@@ -5684,7 +5684,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>160</v>
       </c>
@@ -5731,7 +5731,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>165</v>
       </c>
@@ -5778,7 +5778,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>81</v>
       </c>
@@ -5825,7 +5825,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>86</v>
       </c>
@@ -5872,7 +5872,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>172</v>
       </c>
@@ -5919,7 +5919,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>176</v>
       </c>
@@ -5966,7 +5966,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>180</v>
       </c>
@@ -6013,7 +6013,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>111</v>
       </c>
@@ -6060,7 +6060,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>186</v>
       </c>
@@ -6107,7 +6107,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>190</v>
       </c>
@@ -6154,7 +6154,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>117</v>
       </c>
@@ -6201,7 +6201,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>195</v>
       </c>
@@ -6248,7 +6248,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="9"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
@@ -6265,7 +6265,7 @@
       <c r="N49" s="9"/>
       <c r="O49" s="9"/>
     </row>
-    <row r="50" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="9"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
@@ -6282,7 +6282,7 @@
       <c r="N50" s="9"/>
       <c r="O50" s="9"/>
     </row>
-    <row r="51" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="9"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -6299,7 +6299,7 @@
       <c r="N51" s="9"/>
       <c r="O51" s="9"/>
     </row>
-    <row r="52" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A52" s="49" t="s">
         <v>205</v>
       </c>
@@ -6315,7 +6315,7 @@
         <v>34.43</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="41.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:15" ht="41.25" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A53" s="52" t="s">
         <v>204</v>
       </c>
@@ -6334,7 +6334,7 @@
       <c r="N53" s="52"/>
       <c r="O53" s="52"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54" s="11" t="s">
         <v>0</v>
       </c>
@@ -6381,7 +6381,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55" s="8" t="s">
         <v>206</v>
       </c>
@@ -6428,7 +6428,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56" s="8" t="s">
         <v>212</v>
       </c>
@@ -6475,7 +6475,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57" s="8" t="s">
         <v>217</v>
       </c>
@@ -6522,7 +6522,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58" s="8" t="s">
         <v>221</v>
       </c>
@@ -6569,7 +6569,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A59" s="8" t="s">
         <v>226</v>
       </c>
@@ -6613,7 +6613,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -6630,7 +6630,7 @@
       <c r="N60" s="8"/>
       <c r="O60" s="8"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A61" s="12"/>
       <c r="B61" s="12"/>
       <c r="C61" s="12"/>
@@ -6647,7 +6647,7 @@
       <c r="N61" s="12"/>
       <c r="O61" s="12"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A62" s="12"/>
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
@@ -6664,7 +6664,7 @@
       <c r="N62" s="12"/>
       <c r="O62" s="12"/>
     </row>
-    <row r="63" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A63" s="49" t="s">
         <v>205</v>
       </c>
@@ -6680,9 +6680,9 @@
         <v>163.85000000000002</v>
       </c>
     </row>
-    <row r="65" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="66" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="67" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A63:H63"/>
@@ -6778,31 +6778,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A8BB3BB-C29D-41B2-82D5-D9E5E331DAA0}">
   <dimension ref="A1:AF75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7265625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.81640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="47" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="55.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:32" ht="55.5" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A1" s="54" t="s">
         <v>344</v>
       </c>
@@ -6869,7 +6869,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -6919,7 +6919,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>232</v>
       </c>
@@ -6970,7 +6970,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>251</v>
       </c>
@@ -7022,7 +7022,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>244</v>
       </c>
@@ -7074,7 +7074,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>250</v>
       </c>
@@ -7123,7 +7123,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>254</v>
       </c>
@@ -7175,7 +7175,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="8" spans="1:32" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>254</v>
       </c>
@@ -7227,7 +7227,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>254</v>
       </c>
@@ -7279,7 +7279,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>349</v>
       </c>
@@ -7330,7 +7330,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>250</v>
       </c>
@@ -7378,7 +7378,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>357</v>
       </c>
@@ -7429,7 +7429,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>366</v>
       </c>
@@ -7481,7 +7481,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="14" spans="1:32" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:32" ht="28.5" x14ac:dyDescent="0.65">
       <c r="A14" s="49" t="s">
         <v>205</v>
       </c>
@@ -7497,7 +7497,7 @@
         <v>41.93703212598426</v>
       </c>
     </row>
-    <row r="16" spans="1:32" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:32" ht="36" x14ac:dyDescent="0.8">
       <c r="A16" s="55" t="s">
         <v>231</v>
       </c>
@@ -7516,7 +7516,7 @@
       <c r="N16" s="55"/>
       <c r="O16" s="55"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="23" t="s">
         <v>0</v>
       </c>
@@ -7566,7 +7566,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>235</v>
       </c>
@@ -7580,7 +7580,7 @@
         <v>237</v>
       </c>
       <c r="G18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18" s="5">
         <f>SUM(RBA[Extended Price])</f>
@@ -7588,7 +7588,7 @@
       </c>
       <c r="I18" s="5">
         <f>SRA[[#This Row],[Quantity]]*SRA[[#This Row],[Unit Price]]</f>
-        <v>83.87406425196852</v>
+        <v>41.93703212598426</v>
       </c>
       <c r="J18" t="s">
         <v>235</v>
@@ -7612,7 +7612,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>262</v>
       </c>
@@ -7660,7 +7660,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>271</v>
       </c>
@@ -7708,7 +7708,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>254</v>
       </c>
@@ -7760,7 +7760,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>373</v>
       </c>
@@ -7806,7 +7806,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>391</v>
       </c>
@@ -7854,7 +7854,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>254</v>
       </c>
@@ -7906,7 +7906,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>254</v>
       </c>
@@ -7958,7 +7958,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>275</v>
       </c>
@@ -8007,7 +8007,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>370</v>
       </c>
@@ -8059,7 +8059,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>343</v>
       </c>
@@ -8112,7 +8112,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>376</v>
       </c>
@@ -8160,7 +8160,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>254</v>
       </c>
@@ -8212,7 +8212,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>254</v>
       </c>
@@ -8264,7 +8264,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>385</v>
       </c>
@@ -8315,7 +8315,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>390</v>
       </c>
@@ -8363,7 +8363,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>396</v>
       </c>
@@ -8414,11 +8414,11 @@
         <v>400</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="H35" s="5"/>
       <c r="I35" s="30"/>
     </row>
-    <row r="36" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:16" ht="28.5" x14ac:dyDescent="0.65">
       <c r="A36" s="49" t="s">
         <v>205</v>
       </c>
@@ -8431,10 +8431,10 @@
       <c r="H36" s="49"/>
       <c r="I36" s="5">
         <f>SUM(SRA[Extended Price])</f>
-        <v>328.20925171411267</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" ht="36" x14ac:dyDescent="0.55000000000000004">
+        <v>286.27221958812839</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="36" x14ac:dyDescent="0.8">
       <c r="A38" s="56" t="s">
         <v>281</v>
       </c>
@@ -8453,7 +8453,7 @@
       <c r="N38" s="56"/>
       <c r="O38" s="56"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" s="23" t="s">
         <v>0</v>
       </c>
@@ -8503,7 +8503,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>235</v>
       </c>
@@ -8548,7 +8548,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" s="31" t="s">
         <v>282</v>
       </c>
@@ -8600,7 +8600,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>286</v>
       </c>
@@ -8649,7 +8649,7 @@
       </c>
       <c r="P42" s="31"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>290</v>
       </c>
@@ -8697,7 +8697,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>295</v>
       </c>
@@ -8749,7 +8749,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A45" s="31" t="s">
         <v>254</v>
       </c>
@@ -8801,7 +8801,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>300</v>
       </c>
@@ -8853,7 +8853,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="31" t="s">
         <v>254</v>
       </c>
@@ -8905,7 +8905,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48" s="31"/>
       <c r="B48" t="s">
         <v>305</v>
@@ -8955,7 +8955,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49" s="31" t="s">
         <v>251</v>
       </c>
@@ -9006,7 +9006,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A50" s="31"/>
       <c r="B50" s="31" t="s">
         <v>250</v>
@@ -9055,7 +9055,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>309</v>
       </c>
@@ -9108,7 +9108,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A52" s="31" t="s">
         <v>244</v>
       </c>
@@ -9161,7 +9161,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:16" ht="28.5" x14ac:dyDescent="0.65">
       <c r="A53" s="49" t="s">
         <v>205</v>
       </c>
@@ -9177,7 +9177,7 @@
         <v>50.351527874015751</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:16" ht="36" x14ac:dyDescent="0.8">
       <c r="A55" s="53" t="s">
         <v>316</v>
       </c>
@@ -9196,7 +9196,7 @@
       <c r="N55" s="53"/>
       <c r="O55" s="53"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A56" s="23" t="s">
         <v>0</v>
       </c>
@@ -9246,7 +9246,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A57" s="31" t="s">
         <v>254</v>
       </c>
@@ -9298,7 +9298,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="31" t="s">
         <v>254</v>
       </c>
@@ -9350,7 +9350,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A59" s="31" t="s">
         <v>282</v>
       </c>
@@ -9403,7 +9403,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A60" s="31" t="s">
         <v>254</v>
       </c>
@@ -9455,7 +9455,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>254</v>
       </c>
@@ -9507,7 +9507,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A62" s="28" t="s">
         <v>251</v>
       </c>
@@ -9559,7 +9559,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A63" s="28"/>
       <c r="B63" s="27" t="s">
         <v>250</v>
@@ -9609,7 +9609,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:16" ht="28.5" x14ac:dyDescent="0.65">
       <c r="A64" s="49" t="s">
         <v>205</v>
       </c>
@@ -9625,7 +9625,7 @@
         <v>31.219090393700789</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:16" ht="36" x14ac:dyDescent="0.8">
       <c r="A66" s="54" t="s">
         <v>328</v>
       </c>
@@ -9644,7 +9644,7 @@
       <c r="N66" s="54"/>
       <c r="O66" s="54"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A67" s="23" t="s">
         <v>0</v>
       </c>
@@ -9694,7 +9694,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A68" s="28" t="s">
         <v>251</v>
       </c>
@@ -9746,7 +9746,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="28"/>
       <c r="B69" s="27" t="s">
         <v>250</v>
@@ -9796,7 +9796,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>370</v>
       </c>
@@ -9848,7 +9848,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A71" s="36" t="s">
         <v>282</v>
       </c>
@@ -9901,7 +9901,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A72" s="28" t="s">
         <v>309</v>
       </c>
@@ -9954,7 +9954,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A73" s="28" t="s">
         <v>254</v>
       </c>
@@ -10006,7 +10006,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A74" s="28" t="s">
         <v>335</v>
       </c>
@@ -10054,7 +10054,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:16" ht="28.5" x14ac:dyDescent="0.65">
       <c r="A75" s="49" t="s">
         <v>205</v>
       </c>
